--- a/biology/Médecine/Ronald_Mary/Ronald_Mary.xlsx
+++ b/biology/Médecine/Ronald_Mary/Ronald_Mary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ronald Mary (né le 18 octobre 1953 à Marseille) est un ancien journaliste français, devenu ensuite praticien et maître enseignant de Reiki Usui.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence le métier de journaliste en autodidacte au début des années 1980 (il est tour à tour producteur sur France Inter et Antenne 2, rédacteur pour les magazines Médecines Douces, Psychologies, Nouvelles Clés, rédacteur en chef d’un magazine de santé…), et mène en parallèle une activité d’écrivain (auteur de livres sur la santé au naturel et les médecines écologiques) et d’animateur de programmes de conférences.
 En 1993, il devient praticien de Reiki de la lignée Alliance Reiki et est aussi initié à la Maîtrise selon la lignée québécoise. Il propose depuis des sessions d’initiation au Reiki.
